--- a/biology/Botanique/Yucca_gloriosa/Yucca_gloriosa.xlsx
+++ b/biology/Botanique/Yucca_gloriosa/Yucca_gloriosa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Yucca gloriosa, ou Yucca superbe, aussi communément appelé Yucca, est une espèce d'arbuste cespiteux xérophyte de la famille des Asparagaceae originaire du Sud Est des États-Unis.
 </t>
@@ -511,7 +523,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Yucca gloriosa pousse spontanément sur les dunes côtières de Géorgie, de Floride, du Mississippi et de Louisiane.
 Elle est naturalisée en France dans les zones côtières sableuses du sud-ouest.
@@ -543,7 +557,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Y. gloriosa est un arbuste au feuillage persistant. La plante peut atteindre une hauteur de plus de 5 m. Il est caulescent, généralement avec plusieurs tiges provenant de la base et un épaississement de la base des spécimens adultes. Ses racines sont rhizomateuses.
 Les longues feuilles étroites, droites et très rigides mesurent de 30-50 cm de long et 2-3,5 cm de large. Elles sont vert bleuté à bords entiers, lisses, parfois finement dentelées, acuminées, avec une épine terminale brune et piquante.
@@ -577,7 +593,9 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La plante est largement cultivée en climats tempérés et subtropicaux. Elle est très rustique et supporte des températures allant jusqu'à -20 °C (Zone USDA 7 à 10). Elle peut supporter une couverture prolongée de neige ou de gel. La partie souterraine de la plante est encore plus résistante au froid que la partie aérienne. Cependant, ces plantes xérophytes ne sont pas recommandées pour les zones à forte pluviométrie car elles supportent mal une humidité permanente.
 Dans un environnement domestique, la plante a des besoins moyens en eau et peu d'entretien est nécessaire en dehors de l'enlèvement des feuilles mortes une fois par an. La plante Y. gloriosa et le cultivar 'Variegata' ont tous deux gagné le "Award of Garden Merit" de la Royal Horticultural Society.
@@ -609,7 +627,9 @@
           <t>Multiplication</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Pour multiplier la plante, il suffit de couper une tête avec un morceau de tronc sur un vieux sujet, de laisser sécher la blessure, puis de replanter directement dans le sol. On peut aussi procéder par semis. Il faudra alors patienter 5 ans pour voir la plante fleurir.
 </t>
@@ -640,7 +660,9 @@
           <t>Formes et variétés</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Dans les collections en Europe et à l'étranger, il existe de nombreuses formes et hybrides (Sprenger, Förster) des 18e et 19e siècles. Les noms suivants ont été utilisés dans la flore de jardin européennes pour les plantes d'origine incertaine.
 </t>
@@ -671,7 +693,9 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle est appréciée comme plante ornementale (intérieure ou extérieure) car elle constitue un point focal architectural intéressant mais ne doit pas être placée dans une zone de passage afin d'éviter de se piquer avec les pointes des feuilles.
 Les fruits sont consommés crus ou cuits. Les jeunes inflorescences sont consommées comme des asperges cuites après les avoir pelées.
@@ -705,10 +729,12 @@
           <t>Propriétés</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">Yucca gloriosa peut causer des irritations de la peau ou des allergies de contact. Les pointes des feuilles sont assez pointues pour percer la peau.
-La hampe et les graines sont comestibles mais le reste de la plante est toxique pour les mammifères (homme, chat, chien). Ses effets sont graves et provoquent vomissements, salivation exacerbée, diarrhée, paralysie voire coma[1].
+La hampe et les graines sont comestibles mais le reste de la plante est toxique pour les mammifères (homme, chat, chien). Ses effets sont graves et provoquent vomissements, salivation exacerbée, diarrhée, paralysie voire coma.
 </t>
         </is>
       </c>
@@ -737,7 +763,9 @@
           <t>Peinture</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t xml:space="preserve">Le peintre Antoine Chazal (1793-1854) a peint un Yucca gloriosa dans le parc du château de Louis-Philippe à Neuilly : Paris, musée du Louvre, Le Yucca gloriosa, huile sur toile, 1845, 0,65 × 0,54, tableau loué par Baudelaire.
 </t>
